--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2D59A2-C4AA-FC47-BEA3-33B582E2C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B1C9924-D357-4161-AF1C-CFA9151A3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2520" windowWidth="27640" windowHeight="16000" xr2:uid="{F4B872BB-32A5-0F43-98FD-3F052D27999E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="158" uniqueCount="88">
   <si>
     <t>id_jeu</t>
   </si>
@@ -41,296 +33,465 @@
     <t>nom_jeu</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>duree</t>
+  </si>
+  <si>
+    <t>date_parution</t>
+  </si>
+  <si>
+    <t>Takenoko</t>
+  </si>
+  <si>
+    <t>Bombyx</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Game Works</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Karuba</t>
+  </si>
+  <si>
+    <t>Haba</t>
+  </si>
+  <si>
+    <t>Santorini</t>
+  </si>
+  <si>
+    <t>Roxley</t>
+  </si>
+  <si>
+    <t>Down Force</t>
+  </si>
+  <si>
+    <t>Iello</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>Imaginarium</t>
+  </si>
+  <si>
+    <t>Yamatai</t>
+  </si>
+  <si>
+    <t>Days of wonder</t>
+  </si>
+  <si>
+    <t>Quadropolis</t>
+  </si>
+  <si>
+    <t>Five Tribes</t>
+  </si>
+  <si>
+    <t>El Dorado</t>
+  </si>
+  <si>
+    <t>Ravensburger</t>
+  </si>
+  <si>
+    <t>Iquazu</t>
+  </si>
+  <si>
+    <t>L’ile au tresor</t>
+  </si>
+  <si>
+    <t>Matagot</t>
+  </si>
+  <si>
+    <t>Descendance</t>
+  </si>
+  <si>
+    <t>Gigamic</t>
+  </si>
+  <si>
+    <t>7 Wonders</t>
+  </si>
+  <si>
+    <t>Repos Production</t>
+  </si>
+  <si>
+    <t>Otys</t>
+  </si>
+  <si>
+    <t>Libellud</t>
+  </si>
+  <si>
+    <t>Dice Forge</t>
+  </si>
+  <si>
+    <t>Solenia</t>
+  </si>
+  <si>
+    <t>Pearl Games</t>
+  </si>
+  <si>
+    <t>It’s a wonderful world</t>
+  </si>
+  <si>
+    <t>Ori Games</t>
+  </si>
+  <si>
+    <t>7 Wonders Architects</t>
+  </si>
+  <si>
+    <t>Bunny Kingdom</t>
+  </si>
+  <si>
+    <t>Pharaon</t>
+  </si>
+  <si>
+    <t>Catch up Games</t>
+  </si>
+  <si>
+    <t>Dreamscape</t>
+  </si>
+  <si>
+    <t>Sylex</t>
+  </si>
+  <si>
+    <t>Maka Bana</t>
+  </si>
+  <si>
+    <t>Sweet Games</t>
+  </si>
+  <si>
+    <t>Ishtar</t>
+  </si>
+  <si>
+    <t>Catan</t>
+  </si>
+  <si>
+    <t>Filosofia</t>
+  </si>
+  <si>
+    <t>Mr.Jack</t>
+  </si>
+  <si>
+    <t>Hurrican</t>
+  </si>
+  <si>
+    <t>Century</t>
+  </si>
+  <si>
+    <t>Plan B Games</t>
+  </si>
+  <si>
+    <t>Splendor</t>
+  </si>
+  <si>
+    <t>Space Cowboys</t>
+  </si>
+  <si>
+    <t>Le tour du monde en 80 jours</t>
+  </si>
+  <si>
+    <t>Purple Brain Classics</t>
+  </si>
+  <si>
+    <t>Les ruines perdues de Narak</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Dixit</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Next Move</t>
+  </si>
+  <si>
+    <t>Les aventuriers du rail</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Sagrada</t>
+  </si>
+  <si>
+    <t>Majesty</t>
+  </si>
+  <si>
+    <t>Hans im gluck</t>
+  </si>
+  <si>
+    <t>Citadelles</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Code Names</t>
+  </si>
+  <si>
+    <t>Kingdomino</t>
+  </si>
+  <si>
+    <t>Blue Orange</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Blue Cocker</t>
+  </si>
+  <si>
+    <t>Corinth</t>
+  </si>
+  <si>
+    <t>Celestia</t>
+  </si>
+  <si>
+    <t>Blam</t>
+  </si>
+  <si>
+    <t>7 Wonders Duel</t>
+  </si>
+  <si>
+    <t>Chakra</t>
+  </si>
+  <si>
+    <t>Sea of clouds</t>
+  </si>
+  <si>
+    <t>Les batisseurs</t>
+  </si>
+  <si>
+    <t>Minivilles</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>nb_joueurs_min</t>
+  </si>
+  <si>
+    <t>nb_joueurs_max</t>
+  </si>
+  <si>
     <t>editeur</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>duree</t>
-  </si>
-  <si>
-    <t>date_parution</t>
-  </si>
-  <si>
-    <t>'Takenoko'</t>
-  </si>
-  <si>
-    <t>'Bombyx'</t>
-  </si>
-  <si>
-    <t>'Points'</t>
-  </si>
-  <si>
-    <t>'Conspiracy'</t>
-  </si>
-  <si>
-    <t>'Jamaica'</t>
-  </si>
-  <si>
-    <t>'Game Works'</t>
-  </si>
-  <si>
-    <t>'Course'</t>
-  </si>
-  <si>
-    <t>'Karuba'</t>
-  </si>
-  <si>
-    <t>'Haba'</t>
-  </si>
-  <si>
-    <t>'Santorini'</t>
-  </si>
-  <si>
-    <t>'Roxley'</t>
-  </si>
-  <si>
-    <t>'Down Force'</t>
-  </si>
-  <si>
-    <t>'Iello'</t>
-  </si>
-  <si>
-    <t>'Abyss'</t>
-  </si>
-  <si>
-    <t>'Imaginarium'</t>
-  </si>
-  <si>
-    <t>'Yamatai'</t>
-  </si>
-  <si>
-    <t>'Days of wonder'</t>
-  </si>
-  <si>
-    <t>'Quadropolis'</t>
-  </si>
-  <si>
-    <t>'Five Tribes'</t>
-  </si>
-  <si>
-    <t>'El Dorado'</t>
-  </si>
-  <si>
-    <t>'Ravensburger'</t>
-  </si>
-  <si>
-    <t>'Iquazu'</t>
-  </si>
-  <si>
-    <t>'L’ile au tresor'</t>
-  </si>
-  <si>
-    <t>'Matagot'</t>
-  </si>
-  <si>
-    <t>'Descendance'</t>
-  </si>
-  <si>
-    <t>'Gigamic'</t>
-  </si>
-  <si>
-    <t>'7 Wonders'</t>
-  </si>
-  <si>
-    <t>'Repos Production'</t>
-  </si>
-  <si>
-    <t>'Otys'</t>
-  </si>
-  <si>
-    <t>'Libellud'</t>
-  </si>
-  <si>
-    <t>'Dice Forge'</t>
-  </si>
-  <si>
-    <t>'Solenia'</t>
-  </si>
-  <si>
-    <t>'Pearl Games'</t>
-  </si>
-  <si>
-    <t>'It’s a wonderful world'</t>
-  </si>
-  <si>
-    <t>'Ori Games'</t>
-  </si>
-  <si>
-    <t>'7 Wonders Architects'</t>
-  </si>
-  <si>
-    <t>'Bunny Kingdom'</t>
-  </si>
-  <si>
-    <t>'Pharaon'</t>
-  </si>
-  <si>
-    <t>'Catch up Games'</t>
-  </si>
-  <si>
-    <t>'Dreamscape'</t>
-  </si>
-  <si>
-    <t>'Sylex'</t>
-  </si>
-  <si>
-    <t>'Maka Bana'</t>
-  </si>
-  <si>
-    <t>'Sweet Games'</t>
-  </si>
-  <si>
-    <t>'Ishtar'</t>
-  </si>
-  <si>
-    <t>'Catan'</t>
-  </si>
-  <si>
-    <t>'Filosofia'</t>
-  </si>
-  <si>
-    <t>'Mr.Jack'</t>
-  </si>
-  <si>
-    <t>'Hurrican'</t>
-  </si>
-  <si>
-    <t>'Century'</t>
-  </si>
-  <si>
-    <t>'Plan B Games'</t>
-  </si>
-  <si>
-    <t>'Splendor'</t>
-  </si>
-  <si>
-    <t>'Space Cowboys'</t>
-  </si>
-  <si>
-    <t>'Le tour du monde en 80 jours'</t>
-  </si>
-  <si>
-    <t>'Purple Brain Classics'</t>
-  </si>
-  <si>
-    <t>'Les ruines perdues de Narak'</t>
-  </si>
-  <si>
-    <t>'Concept'</t>
-  </si>
-  <si>
-    <t>'Dixit'</t>
-  </si>
-  <si>
-    <t>'Azul'</t>
-  </si>
-  <si>
-    <t>'Next Move'</t>
-  </si>
-  <si>
-    <t>'Les aventuriers du rail'</t>
-  </si>
-  <si>
-    <t>'Medina'</t>
-  </si>
-  <si>
-    <t>'Sagrada'</t>
-  </si>
-  <si>
-    <t>'Majesty'</t>
-  </si>
-  <si>
-    <t>'Hans im gluck'</t>
-  </si>
-  <si>
-    <t>'Citadelles'</t>
-  </si>
-  <si>
-    <t>'Edge'</t>
-  </si>
-  <si>
-    <t>'Code Names'</t>
-  </si>
-  <si>
-    <t>'Kingdomino'</t>
-  </si>
-  <si>
-    <t>'Blue Orange'</t>
-  </si>
-  <si>
-    <t>'Welcome'</t>
-  </si>
-  <si>
-    <t>'Blue Cocker'</t>
-  </si>
-  <si>
-    <t>'Corinth'</t>
-  </si>
-  <si>
-    <t>'Celestia'</t>
-  </si>
-  <si>
-    <t>'Blam'</t>
-  </si>
-  <si>
-    <t>'7 Wonders Duel'</t>
-  </si>
-  <si>
-    <t>'Chakra'</t>
-  </si>
-  <si>
-    <t>'Sea of clouds'</t>
-  </si>
-  <si>
-    <t>'Les batisseurs'</t>
-  </si>
-  <si>
-    <t>'Minivilles'</t>
-  </si>
-  <si>
-    <t>'MGA'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF808080"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF808080"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="18">
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,7 +507,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,25 +660,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -525,25 +686,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -556,21 +717,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -584,7 +745,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -596,32 +757,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -641,16 +802,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108AE3CD-3E6D-5848-98DF-EF15EAB0155B}">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,30 +827,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>45</v>
@@ -689,19 +864,25 @@
       <c r="F2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -709,19 +890,25 @@
       <c r="F3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>45</v>
@@ -729,19 +916,25 @@
       <c r="F4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -749,19 +942,25 @@
       <c r="F5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -769,19 +968,25 @@
       <c r="F6">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -789,19 +994,25 @@
       <c r="F7">
         <v>2018</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>45</v>
@@ -809,19 +1020,25 @@
       <c r="F8">
         <v>2014</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -829,19 +1046,25 @@
       <c r="F9">
         <v>2017</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>80</v>
@@ -849,19 +1072,25 @@
       <c r="F10">
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -869,19 +1098,25 @@
       <c r="F11">
         <v>2016</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>60</v>
@@ -889,19 +1124,25 @@
       <c r="F12">
         <v>2014</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -909,19 +1150,25 @@
       <c r="F13">
         <v>2017</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -929,19 +1176,25 @@
       <c r="F14">
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -949,19 +1202,25 @@
       <c r="F15">
         <v>2018</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>90</v>
@@ -969,19 +1228,25 @@
       <c r="F16">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -989,19 +1254,25 @@
       <c r="F17">
         <v>2010</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>60</v>
@@ -1009,19 +1280,25 @@
       <c r="F18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>45</v>
@@ -1029,19 +1306,25 @@
       <c r="F19">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>45</v>
@@ -1049,19 +1332,25 @@
       <c r="F20">
         <v>2018</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>45</v>
@@ -1069,19 +1358,25 @@
       <c r="F21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>25</v>
@@ -1089,19 +1384,25 @@
       <c r="F22">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>45</v>
@@ -1109,19 +1410,25 @@
       <c r="F23">
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>60</v>
@@ -1129,19 +1436,25 @@
       <c r="F24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>90</v>
@@ -1149,19 +1462,25 @@
       <c r="F25">
         <v>2018</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>45</v>
@@ -1169,19 +1488,25 @@
       <c r="F26">
         <v>2009</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>45</v>
@@ -1189,19 +1514,25 @@
       <c r="F27">
         <v>2019</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>75</v>
@@ -1209,19 +1540,25 @@
       <c r="F28">
         <v>2007</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -1229,19 +1566,25 @@
       <c r="F29">
         <v>2006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>45</v>
@@ -1249,19 +1592,25 @@
       <c r="F30">
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1269,19 +1618,25 @@
       <c r="F31">
         <v>2016</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>45</v>
@@ -1289,19 +1644,25 @@
       <c r="F32">
         <v>2016</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -1309,19 +1670,25 @@
       <c r="F33">
         <v>2021</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>40</v>
@@ -1329,19 +1696,25 @@
       <c r="F34">
         <v>2014</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -1349,19 +1722,25 @@
       <c r="F35">
         <v>2014</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
         <v>63</v>
       </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -1369,19 +1748,25 @@
       <c r="F36">
         <v>2018</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1389,19 +1774,25 @@
       <c r="F37">
         <v>2016</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>60</v>
@@ -1409,19 +1800,25 @@
       <c r="F38">
         <v>2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -1429,19 +1826,25 @@
       <c r="F39">
         <v>2019</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -1449,19 +1852,25 @@
       <c r="F40">
         <v>2017</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
         <v>70</v>
       </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>45</v>
@@ -1469,19 +1878,25 @@
       <c r="F41">
         <v>2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>15</v>
@@ -1489,19 +1904,25 @@
       <c r="F42">
         <v>2016</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
         <v>73</v>
       </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -1509,19 +1930,25 @@
       <c r="F43">
         <v>2016</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -1529,19 +1956,25 @@
       <c r="F44">
         <v>2017</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>25</v>
@@ -1549,19 +1982,25 @@
       <c r="F45">
         <v>2019</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -1569,19 +2008,25 @@
       <c r="F46">
         <v>2015</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>30</v>
@@ -1589,19 +2034,25 @@
       <c r="F47">
         <v>2020</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>30</v>
@@ -1609,19 +2060,25 @@
       <c r="F48">
         <v>2019</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -1629,19 +2086,25 @@
       <c r="F49">
         <v>2015</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>30</v>
@@ -1649,19 +2112,25 @@
       <c r="F50">
         <v>2017</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -1669,8 +2138,19 @@
       <c r="F51">
         <v>2014</v>
       </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B1C9924-D357-4161-AF1C-CFA9151A3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8684D602-A853-6F46-81F7-D2E44E8BDB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15600" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>id_jeu</t>
   </si>
@@ -33,6 +41,9 @@
     <t>nom_jeu</t>
   </si>
   <si>
+    <t>editeur</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -42,456 +53,290 @@
     <t>date_parution</t>
   </si>
   <si>
-    <t>Takenoko</t>
-  </si>
-  <si>
-    <t>Bombyx</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Conspiracy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Game Works</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Karuba</t>
-  </si>
-  <si>
-    <t>Haba</t>
-  </si>
-  <si>
-    <t>Santorini</t>
-  </si>
-  <si>
-    <t>Roxley</t>
-  </si>
-  <si>
-    <t>Down Force</t>
-  </si>
-  <si>
-    <t>Iello</t>
-  </si>
-  <si>
-    <t>Abyss</t>
-  </si>
-  <si>
-    <t>Imaginarium</t>
-  </si>
-  <si>
-    <t>Yamatai</t>
-  </si>
-  <si>
-    <t>Days of wonder</t>
-  </si>
-  <si>
-    <t>Quadropolis</t>
-  </si>
-  <si>
-    <t>Five Tribes</t>
-  </si>
-  <si>
-    <t>El Dorado</t>
-  </si>
-  <si>
-    <t>Ravensburger</t>
-  </si>
-  <si>
-    <t>Iquazu</t>
-  </si>
-  <si>
-    <t>L’ile au tresor</t>
-  </si>
-  <si>
-    <t>Matagot</t>
-  </si>
-  <si>
-    <t>Descendance</t>
-  </si>
-  <si>
-    <t>Gigamic</t>
-  </si>
-  <si>
-    <t>7 Wonders</t>
-  </si>
-  <si>
-    <t>Repos Production</t>
-  </si>
-  <si>
-    <t>Otys</t>
-  </si>
-  <si>
-    <t>Libellud</t>
-  </si>
-  <si>
-    <t>Dice Forge</t>
-  </si>
-  <si>
-    <t>Solenia</t>
-  </si>
-  <si>
-    <t>Pearl Games</t>
-  </si>
-  <si>
-    <t>It’s a wonderful world</t>
-  </si>
-  <si>
-    <t>Ori Games</t>
-  </si>
-  <si>
-    <t>7 Wonders Architects</t>
-  </si>
-  <si>
-    <t>Bunny Kingdom</t>
-  </si>
-  <si>
-    <t>Pharaon</t>
-  </si>
-  <si>
-    <t>Catch up Games</t>
-  </si>
-  <si>
-    <t>Dreamscape</t>
-  </si>
-  <si>
-    <t>Sylex</t>
-  </si>
-  <si>
-    <t>Maka Bana</t>
-  </si>
-  <si>
-    <t>Sweet Games</t>
-  </si>
-  <si>
-    <t>Ishtar</t>
-  </si>
-  <si>
-    <t>Catan</t>
-  </si>
-  <si>
-    <t>Filosofia</t>
-  </si>
-  <si>
-    <t>Mr.Jack</t>
-  </si>
-  <si>
-    <t>Hurrican</t>
-  </si>
-  <si>
-    <t>Century</t>
-  </si>
-  <si>
-    <t>Plan B Games</t>
-  </si>
-  <si>
-    <t>Splendor</t>
-  </si>
-  <si>
-    <t>Space Cowboys</t>
-  </si>
-  <si>
-    <t>Le tour du monde en 80 jours</t>
-  </si>
-  <si>
-    <t>Purple Brain Classics</t>
-  </si>
-  <si>
-    <t>Les ruines perdues de Narak</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Dixit</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>Next Move</t>
-  </si>
-  <si>
-    <t>Les aventuriers du rail</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Sagrada</t>
-  </si>
-  <si>
-    <t>Majesty</t>
-  </si>
-  <si>
-    <t>Hans im gluck</t>
-  </si>
-  <si>
-    <t>Citadelles</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>Code Names</t>
-  </si>
-  <si>
-    <t>Kingdomino</t>
-  </si>
-  <si>
-    <t>Blue Orange</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Blue Cocker</t>
-  </si>
-  <si>
-    <t>Corinth</t>
-  </si>
-  <si>
-    <t>Celestia</t>
-  </si>
-  <si>
-    <t>Blam</t>
-  </si>
-  <si>
-    <t>7 Wonders Duel</t>
-  </si>
-  <si>
-    <t>Chakra</t>
-  </si>
-  <si>
-    <t>Sea of clouds</t>
-  </si>
-  <si>
-    <t>Les batisseurs</t>
-  </si>
-  <si>
-    <t>Minivilles</t>
-  </si>
-  <si>
-    <t>MGA</t>
-  </si>
-  <si>
     <t>nb_joueurs_min</t>
   </si>
   <si>
     <t>nb_joueurs_max</t>
   </si>
   <si>
-    <t>editeur</t>
+    <t>'Takenoko'</t>
+  </si>
+  <si>
+    <t>'Bombyx'</t>
+  </si>
+  <si>
+    <t>'Points'</t>
+  </si>
+  <si>
+    <t>'Conspiracy'</t>
+  </si>
+  <si>
+    <t>'Jamaica'</t>
+  </si>
+  <si>
+    <t>'Game Works'</t>
+  </si>
+  <si>
+    <t>'Course'</t>
+  </si>
+  <si>
+    <t>'Karuba'</t>
+  </si>
+  <si>
+    <t>'Haba'</t>
+  </si>
+  <si>
+    <t>'Santorini'</t>
+  </si>
+  <si>
+    <t>'Roxley'</t>
+  </si>
+  <si>
+    <t>'Down Force'</t>
+  </si>
+  <si>
+    <t>'Iello'</t>
+  </si>
+  <si>
+    <t>'Abyss'</t>
+  </si>
+  <si>
+    <t>'Imaginarium'</t>
+  </si>
+  <si>
+    <t>'Yamatai'</t>
+  </si>
+  <si>
+    <t>'Days of wonder'</t>
+  </si>
+  <si>
+    <t>'Quadropolis'</t>
+  </si>
+  <si>
+    <t>'Five Tribes'</t>
+  </si>
+  <si>
+    <t>'El Dorado'</t>
+  </si>
+  <si>
+    <t>'Ravensburger'</t>
+  </si>
+  <si>
+    <t>'Iquazu'</t>
+  </si>
+  <si>
+    <t>'L’ile au tresor'</t>
+  </si>
+  <si>
+    <t>'Matagot'</t>
+  </si>
+  <si>
+    <t>'Descendance'</t>
+  </si>
+  <si>
+    <t>'Gigamic'</t>
+  </si>
+  <si>
+    <t>'7 Wonders'</t>
+  </si>
+  <si>
+    <t>'Repos Production'</t>
+  </si>
+  <si>
+    <t>'Otys'</t>
+  </si>
+  <si>
+    <t>'Libellud'</t>
+  </si>
+  <si>
+    <t>'Dice Forge'</t>
+  </si>
+  <si>
+    <t>'Solenia'</t>
+  </si>
+  <si>
+    <t>'Pearl Games'</t>
+  </si>
+  <si>
+    <t>'It’s a wonderful world'</t>
+  </si>
+  <si>
+    <t>'Ori Games'</t>
+  </si>
+  <si>
+    <t>'7 Wonders Architects'</t>
+  </si>
+  <si>
+    <t>'Bunny Kingdom'</t>
+  </si>
+  <si>
+    <t>'Pharaon'</t>
+  </si>
+  <si>
+    <t>'Catch up Games'</t>
+  </si>
+  <si>
+    <t>'Dreamscape'</t>
+  </si>
+  <si>
+    <t>'Sylex'</t>
+  </si>
+  <si>
+    <t>'Maka Bana'</t>
+  </si>
+  <si>
+    <t>'Sweet Games'</t>
+  </si>
+  <si>
+    <t>'Ishtar'</t>
+  </si>
+  <si>
+    <t>'Catan'</t>
+  </si>
+  <si>
+    <t>'Filosofia'</t>
+  </si>
+  <si>
+    <t>'Mr.Jack'</t>
+  </si>
+  <si>
+    <t>'Hurrican'</t>
+  </si>
+  <si>
+    <t>'Century'</t>
+  </si>
+  <si>
+    <t>'Plan B Games'</t>
+  </si>
+  <si>
+    <t>'Splendor'</t>
+  </si>
+  <si>
+    <t>'Space Cowboys'</t>
+  </si>
+  <si>
+    <t>'Le tour du monde en 80 jours'</t>
+  </si>
+  <si>
+    <t>'Purple Brain Classics'</t>
+  </si>
+  <si>
+    <t>'Les ruines perdues de Narak'</t>
+  </si>
+  <si>
+    <t>'Concept'</t>
+  </si>
+  <si>
+    <t>'Dixit'</t>
+  </si>
+  <si>
+    <t>'Azul'</t>
+  </si>
+  <si>
+    <t>'Next Move'</t>
+  </si>
+  <si>
+    <t>'Les aventuriers du rail'</t>
+  </si>
+  <si>
+    <t>'Medina'</t>
+  </si>
+  <si>
+    <t>'Sagrada'</t>
+  </si>
+  <si>
+    <t>'Majesty'</t>
+  </si>
+  <si>
+    <t>'Hans im gluck'</t>
+  </si>
+  <si>
+    <t>'Citadelles'</t>
+  </si>
+  <si>
+    <t>'Edge'</t>
+  </si>
+  <si>
+    <t>'Code Names'</t>
+  </si>
+  <si>
+    <t>'Kingdomino'</t>
+  </si>
+  <si>
+    <t>'Blue Orange'</t>
+  </si>
+  <si>
+    <t>'Welcome'</t>
+  </si>
+  <si>
+    <t>'Blue Cocker'</t>
+  </si>
+  <si>
+    <t>'Corinth'</t>
+  </si>
+  <si>
+    <t>'Celestia'</t>
+  </si>
+  <si>
+    <t>'Blam'</t>
+  </si>
+  <si>
+    <t>'7 Wonders Duel'</t>
+  </si>
+  <si>
+    <t>'Chakra'</t>
+  </si>
+  <si>
+    <t>'Sea of clouds'</t>
+  </si>
+  <si>
+    <t>'Les batisseurs'</t>
+  </si>
+  <si>
+    <t>'Minivilles'</t>
+  </si>
+  <si>
+    <t>'MGA'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Liberation Sans"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCC0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color rgb="FF808080"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF808080"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading (user)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,25 +505,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -686,25 +531,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -717,21 +562,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -745,7 +590,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -757,32 +602,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -802,24 +647,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA486F-CF32-0346-BC63-9A9464ABB015}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,36 +664,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>45</v>
@@ -871,18 +708,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -897,18 +734,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>45</v>
@@ -923,18 +760,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -949,18 +786,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -975,18 +812,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1001,18 +838,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>45</v>
@@ -1027,18 +864,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -1053,18 +890,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>80</v>
@@ -1079,18 +916,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -1105,18 +942,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>60</v>
@@ -1131,18 +968,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -1157,18 +994,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1183,18 +1020,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -1209,18 +1046,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>90</v>
@@ -1235,18 +1072,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -1261,18 +1098,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>60</v>
@@ -1287,18 +1124,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>45</v>
@@ -1313,18 +1150,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>45</v>
@@ -1339,18 +1176,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>45</v>
@@ -1365,18 +1202,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>25</v>
@@ -1391,18 +1228,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>45</v>
@@ -1417,18 +1254,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>60</v>
@@ -1443,18 +1280,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>90</v>
@@ -1469,18 +1306,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>45</v>
@@ -1495,18 +1332,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>45</v>
@@ -1521,18 +1358,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>75</v>
@@ -1547,18 +1384,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -1573,18 +1410,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>45</v>
@@ -1599,18 +1436,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1625,18 +1462,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>45</v>
@@ -1651,18 +1488,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -1677,18 +1514,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>40</v>
@@ -1703,18 +1540,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -1729,18 +1566,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -1755,18 +1592,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1781,18 +1618,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>60</v>
@@ -1807,18 +1644,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -1833,18 +1670,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -1859,18 +1696,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>45</v>
@@ -1885,18 +1722,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>15</v>
@@ -1911,18 +1748,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -1937,18 +1774,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -1963,18 +1800,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>25</v>
@@ -1989,18 +1826,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -2015,18 +1852,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>30</v>
@@ -2041,18 +1878,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>30</v>
@@ -2067,18 +1904,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -2093,18 +1930,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>30</v>
@@ -2119,18 +1956,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -2146,11 +1983,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\bdd_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8684D602-A853-6F46-81F7-D2E44E8BDB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595F7377-FCE8-4853-8429-D39A5B7C123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15600" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -303,6 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -332,8 +335,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,15 +653,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA486F-CF32-0346-BC63-9A9464ABB015}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -698,8 +703,8 @@
       <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2">
-        <v>2011</v>
+      <c r="F2" s="2">
+        <v>40544</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -707,8 +712,9 @@
       <c r="H2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -724,8 +730,8 @@
       <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3">
-        <v>2019</v>
+      <c r="F3" s="2">
+        <v>43466</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -733,8 +739,9 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -750,8 +757,8 @@
       <c r="E4">
         <v>45</v>
       </c>
-      <c r="F4">
-        <v>2008</v>
+      <c r="F4" s="2">
+        <v>39448</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -759,8 +766,9 @@
       <c r="H4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -776,8 +784,8 @@
       <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5">
-        <v>2015</v>
+      <c r="F5" s="2">
+        <v>42005</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -785,8 +793,9 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,8 +811,8 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>2018</v>
+      <c r="F6" s="2">
+        <v>43101</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -811,8 +820,9 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -828,8 +838,8 @@
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>2018</v>
+      <c r="F7" s="2">
+        <v>43101</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -837,8 +847,9 @@
       <c r="H7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -854,8 +865,8 @@
       <c r="E8">
         <v>45</v>
       </c>
-      <c r="F8">
-        <v>2014</v>
+      <c r="F8" s="2">
+        <v>41640</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -863,8 +874,9 @@
       <c r="H8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -880,8 +892,8 @@
       <c r="E9">
         <v>90</v>
       </c>
-      <c r="F9">
-        <v>2017</v>
+      <c r="F9" s="2">
+        <v>42736</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -889,8 +901,9 @@
       <c r="H9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -906,8 +919,8 @@
       <c r="E10">
         <v>80</v>
       </c>
-      <c r="F10">
-        <v>2017</v>
+      <c r="F10" s="2">
+        <v>42736</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -915,8 +928,9 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -932,8 +946,8 @@
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11">
-        <v>2016</v>
+      <c r="F11" s="2">
+        <v>42370</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -941,8 +955,9 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -958,8 +973,8 @@
       <c r="E12">
         <v>60</v>
       </c>
-      <c r="F12">
-        <v>2014</v>
+      <c r="F12" s="2">
+        <v>41640</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -967,8 +982,9 @@
       <c r="H12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -984,8 +1000,8 @@
       <c r="E13">
         <v>60</v>
       </c>
-      <c r="F13">
-        <v>2017</v>
+      <c r="F13" s="2">
+        <v>42736</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -993,8 +1009,9 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1010,8 +1027,8 @@
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>2017</v>
+      <c r="F14" s="2">
+        <v>42736</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1019,8 +1036,9 @@
       <c r="H14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1036,8 +1054,8 @@
       <c r="E15">
         <v>45</v>
       </c>
-      <c r="F15">
-        <v>2018</v>
+      <c r="F15" s="2">
+        <v>43101</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1045,8 +1063,9 @@
       <c r="H15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1062,8 +1081,8 @@
       <c r="E16">
         <v>90</v>
       </c>
-      <c r="F16">
-        <v>2012</v>
+      <c r="F16" s="2">
+        <v>40909</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1071,8 +1090,9 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1088,8 +1108,8 @@
       <c r="E17">
         <v>30</v>
       </c>
-      <c r="F17">
-        <v>2010</v>
+      <c r="F17" s="2">
+        <v>40179</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1097,8 +1117,9 @@
       <c r="H17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1114,8 +1135,8 @@
       <c r="E18">
         <v>60</v>
       </c>
-      <c r="F18">
-        <v>2017</v>
+      <c r="F18" s="2">
+        <v>42736</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1123,8 +1144,9 @@
       <c r="H18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1140,8 +1162,8 @@
       <c r="E19">
         <v>45</v>
       </c>
-      <c r="F19">
-        <v>2017</v>
+      <c r="F19" s="2">
+        <v>42736</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1149,8 +1171,9 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1166,8 +1189,8 @@
       <c r="E20">
         <v>45</v>
       </c>
-      <c r="F20">
-        <v>2018</v>
+      <c r="F20" s="2">
+        <v>43101</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1175,8 +1198,9 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1192,8 +1216,8 @@
       <c r="E21">
         <v>45</v>
       </c>
-      <c r="F21">
-        <v>2020</v>
+      <c r="F21" s="2">
+        <v>43831</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1201,8 +1225,9 @@
       <c r="H21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1218,8 +1243,8 @@
       <c r="E22">
         <v>25</v>
       </c>
-      <c r="F22">
-        <v>2021</v>
+      <c r="F22" s="2">
+        <v>44197</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1227,8 +1252,9 @@
       <c r="H22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1244,8 +1270,8 @@
       <c r="E23">
         <v>45</v>
       </c>
-      <c r="F23">
-        <v>2017</v>
+      <c r="F23" s="2">
+        <v>42736</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1253,8 +1279,9 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1270,8 +1297,8 @@
       <c r="E24">
         <v>60</v>
       </c>
-      <c r="F24">
-        <v>2019</v>
+      <c r="F24" s="2">
+        <v>43466</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1279,8 +1306,9 @@
       <c r="H24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1296,8 +1324,8 @@
       <c r="E25">
         <v>90</v>
       </c>
-      <c r="F25">
-        <v>2018</v>
+      <c r="F25" s="2">
+        <v>43101</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1305,8 +1333,9 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1322,8 +1351,8 @@
       <c r="E26">
         <v>45</v>
       </c>
-      <c r="F26">
-        <v>2009</v>
+      <c r="F26" s="2">
+        <v>39814</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1331,8 +1360,9 @@
       <c r="H26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1348,8 +1378,8 @@
       <c r="E27">
         <v>45</v>
       </c>
-      <c r="F27">
-        <v>2019</v>
+      <c r="F27" s="2">
+        <v>43466</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1357,8 +1387,9 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1374,8 +1405,8 @@
       <c r="E28">
         <v>75</v>
       </c>
-      <c r="F28">
-        <v>2007</v>
+      <c r="F28" s="2">
+        <v>39083</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1383,8 +1414,9 @@
       <c r="H28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1400,8 +1432,8 @@
       <c r="E29">
         <v>30</v>
       </c>
-      <c r="F29">
-        <v>2006</v>
+      <c r="F29" s="2">
+        <v>38718</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1409,8 +1441,9 @@
       <c r="H29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1426,8 +1459,8 @@
       <c r="E30">
         <v>45</v>
       </c>
-      <c r="F30">
-        <v>2017</v>
+      <c r="F30" s="2">
+        <v>42736</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1435,8 +1468,9 @@
       <c r="H30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1452,8 +1486,8 @@
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31">
-        <v>2016</v>
+      <c r="F31" s="2">
+        <v>42370</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1461,8 +1495,9 @@
       <c r="H31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1478,8 +1513,8 @@
       <c r="E32">
         <v>45</v>
       </c>
-      <c r="F32">
-        <v>2016</v>
+      <c r="F32" s="2">
+        <v>42370</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1487,8 +1522,9 @@
       <c r="H32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1504,8 +1540,8 @@
       <c r="E33">
         <v>100</v>
       </c>
-      <c r="F33">
-        <v>2021</v>
+      <c r="F33" s="2">
+        <v>44197</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1513,8 +1549,9 @@
       <c r="H33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1530,8 +1567,8 @@
       <c r="E34">
         <v>40</v>
       </c>
-      <c r="F34">
-        <v>2014</v>
+      <c r="F34" s="2">
+        <v>41640</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -1539,8 +1576,9 @@
       <c r="H34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1556,8 +1594,8 @@
       <c r="E35">
         <v>30</v>
       </c>
-      <c r="F35">
-        <v>2014</v>
+      <c r="F35" s="2">
+        <v>41640</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1565,8 +1603,9 @@
       <c r="H35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1582,8 +1621,8 @@
       <c r="E36">
         <v>30</v>
       </c>
-      <c r="F36">
-        <v>2018</v>
+      <c r="F36" s="2">
+        <v>43101</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1591,8 +1630,9 @@
       <c r="H36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1608,8 +1648,8 @@
       <c r="E37">
         <v>100</v>
       </c>
-      <c r="F37">
-        <v>2016</v>
+      <c r="F37" s="2">
+        <v>42370</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1617,8 +1657,9 @@
       <c r="H37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1634,8 +1675,8 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="F38">
-        <v>2014</v>
+      <c r="F38" s="2">
+        <v>41640</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1643,8 +1684,9 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1660,8 +1702,8 @@
       <c r="E39">
         <v>40</v>
       </c>
-      <c r="F39">
-        <v>2019</v>
+      <c r="F39" s="2">
+        <v>43466</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1669,8 +1711,9 @@
       <c r="H39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1686,8 +1729,8 @@
       <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40">
-        <v>2017</v>
+      <c r="F40" s="2">
+        <v>42736</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1695,8 +1738,9 @@
       <c r="H40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1712,8 +1756,8 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41">
-        <v>2014</v>
+      <c r="F41" s="2">
+        <v>41640</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1721,8 +1765,9 @@
       <c r="H41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1738,8 +1783,8 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42">
-        <v>2016</v>
+      <c r="F42" s="2">
+        <v>42370</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1747,8 +1792,9 @@
       <c r="H42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1764,8 +1810,8 @@
       <c r="E43">
         <v>15</v>
       </c>
-      <c r="F43">
-        <v>2016</v>
+      <c r="F43" s="2">
+        <v>42370</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1773,8 +1819,9 @@
       <c r="H43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1790,8 +1837,8 @@
       <c r="E44">
         <v>25</v>
       </c>
-      <c r="F44">
-        <v>2017</v>
+      <c r="F44" s="2">
+        <v>42736</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1799,8 +1846,9 @@
       <c r="H44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1816,8 +1864,8 @@
       <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45">
-        <v>2019</v>
+      <c r="F45" s="2">
+        <v>43466</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -1825,8 +1873,9 @@
       <c r="H45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1842,8 +1891,8 @@
       <c r="E46">
         <v>30</v>
       </c>
-      <c r="F46">
-        <v>2015</v>
+      <c r="F46" s="2">
+        <v>42005</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1851,8 +1900,9 @@
       <c r="H46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1868,8 +1918,8 @@
       <c r="E47">
         <v>30</v>
       </c>
-      <c r="F47">
-        <v>2020</v>
+      <c r="F47" s="2">
+        <v>43831</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1877,8 +1927,9 @@
       <c r="H47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1894,8 +1945,8 @@
       <c r="E48">
         <v>30</v>
       </c>
-      <c r="F48">
-        <v>2019</v>
+      <c r="F48" s="2">
+        <v>43466</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1903,8 +1954,9 @@
       <c r="H48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1920,8 +1972,8 @@
       <c r="E49">
         <v>40</v>
       </c>
-      <c r="F49">
-        <v>2015</v>
+      <c r="F49" s="2">
+        <v>42005</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1929,8 +1981,9 @@
       <c r="H49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1946,8 +1999,8 @@
       <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50">
-        <v>2017</v>
+      <c r="F50" s="2">
+        <v>42736</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1955,8 +2008,9 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1972,8 +2026,8 @@
       <c r="E51">
         <v>30</v>
       </c>
-      <c r="F51">
-        <v>2014</v>
+      <c r="F51" s="2">
+        <v>41640</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -1981,8 +2035,10 @@
       <c r="H51">
         <v>4</v>
       </c>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\bdd_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595F7377-FCE8-4853-8429-D39A5B7C123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673033F8-FDC1-4B61-A653-A6DB4A3DEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -335,9 +335,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -653,15 +652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABA486F-CF32-0346-BC63-9A9464ABB015}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +679,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -687,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,7 +705,7 @@
       <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>40544</v>
       </c>
       <c r="G2">
@@ -712,9 +714,8 @@
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -730,7 +731,7 @@
       <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>43466</v>
       </c>
       <c r="G3">
@@ -739,9 +740,8 @@
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="E4">
         <v>45</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>39448</v>
       </c>
       <c r="G4">
@@ -766,9 +766,8 @@
       <c r="H4">
         <v>6</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -784,7 +783,7 @@
       <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>42005</v>
       </c>
       <c r="G5">
@@ -793,9 +792,8 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -811,7 +809,7 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>43101</v>
       </c>
       <c r="G6">
@@ -820,9 +818,8 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -838,7 +835,7 @@
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>43101</v>
       </c>
       <c r="G7">
@@ -847,9 +844,8 @@
       <c r="H7">
         <v>6</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -865,7 +861,7 @@
       <c r="E8">
         <v>45</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>41640</v>
       </c>
       <c r="G8">
@@ -874,9 +870,8 @@
       <c r="H8">
         <v>4</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -892,7 +887,7 @@
       <c r="E9">
         <v>90</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>42736</v>
       </c>
       <c r="G9">
@@ -901,9 +896,8 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -919,7 +913,7 @@
       <c r="E10">
         <v>80</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>42736</v>
       </c>
       <c r="G10">
@@ -928,9 +922,8 @@
       <c r="H10">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -946,7 +939,7 @@
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>42370</v>
       </c>
       <c r="G11">
@@ -955,9 +948,8 @@
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -973,7 +965,7 @@
       <c r="E12">
         <v>60</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>41640</v>
       </c>
       <c r="G12">
@@ -982,9 +974,8 @@
       <c r="H12">
         <v>4</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1000,7 +991,7 @@
       <c r="E13">
         <v>60</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>42736</v>
       </c>
       <c r="G13">
@@ -1009,9 +1000,8 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1027,7 +1017,7 @@
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>42736</v>
       </c>
       <c r="G14">
@@ -1036,9 +1026,8 @@
       <c r="H14">
         <v>4</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1054,7 +1043,7 @@
       <c r="E15">
         <v>45</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>43101</v>
       </c>
       <c r="G15">
@@ -1063,9 +1052,8 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1081,7 +1069,7 @@
       <c r="E16">
         <v>90</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>40909</v>
       </c>
       <c r="G16">
@@ -1090,9 +1078,8 @@
       <c r="H16">
         <v>4</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1108,7 +1095,7 @@
       <c r="E17">
         <v>30</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>40179</v>
       </c>
       <c r="G17">
@@ -1117,9 +1104,8 @@
       <c r="H17">
         <v>7</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1135,7 +1121,7 @@
       <c r="E18">
         <v>60</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>42736</v>
       </c>
       <c r="G18">
@@ -1144,9 +1130,8 @@
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1162,7 +1147,7 @@
       <c r="E19">
         <v>45</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>42736</v>
       </c>
       <c r="G19">
@@ -1171,9 +1156,8 @@
       <c r="H19">
         <v>4</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1189,7 +1173,7 @@
       <c r="E20">
         <v>45</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>43101</v>
       </c>
       <c r="G20">
@@ -1198,9 +1182,8 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1216,7 +1199,7 @@
       <c r="E21">
         <v>45</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>43831</v>
       </c>
       <c r="G21">
@@ -1225,9 +1208,8 @@
       <c r="H21">
         <v>5</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1243,7 +1225,7 @@
       <c r="E22">
         <v>25</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>44197</v>
       </c>
       <c r="G22">
@@ -1252,9 +1234,8 @@
       <c r="H22">
         <v>7</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1270,7 +1251,7 @@
       <c r="E23">
         <v>45</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>42736</v>
       </c>
       <c r="G23">
@@ -1279,9 +1260,8 @@
       <c r="H23">
         <v>4</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1297,7 +1277,7 @@
       <c r="E24">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>43466</v>
       </c>
       <c r="G24">
@@ -1306,9 +1286,8 @@
       <c r="H24">
         <v>5</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1324,7 +1303,7 @@
       <c r="E25">
         <v>90</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>43101</v>
       </c>
       <c r="G25">
@@ -1333,9 +1312,8 @@
       <c r="H25">
         <v>4</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1351,7 +1329,7 @@
       <c r="E26">
         <v>45</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>39814</v>
       </c>
       <c r="G26">
@@ -1360,9 +1338,8 @@
       <c r="H26">
         <v>6</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1378,7 +1355,7 @@
       <c r="E27">
         <v>45</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>43466</v>
       </c>
       <c r="G27">
@@ -1387,9 +1364,8 @@
       <c r="H27">
         <v>4</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1405,7 +1381,7 @@
       <c r="E28">
         <v>75</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>39083</v>
       </c>
       <c r="G28">
@@ -1414,9 +1390,8 @@
       <c r="H28">
         <v>4</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1432,7 +1407,7 @@
       <c r="E29">
         <v>30</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>38718</v>
       </c>
       <c r="G29">
@@ -1441,9 +1416,8 @@
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1459,7 +1433,7 @@
       <c r="E30">
         <v>45</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>42736</v>
       </c>
       <c r="G30">
@@ -1468,9 +1442,8 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1486,7 +1459,7 @@
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>42370</v>
       </c>
       <c r="G31">
@@ -1495,9 +1468,8 @@
       <c r="H31">
         <v>4</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1513,7 +1485,7 @@
       <c r="E32">
         <v>45</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>42370</v>
       </c>
       <c r="G32">
@@ -1522,9 +1494,8 @@
       <c r="H32">
         <v>6</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1540,7 +1511,7 @@
       <c r="E33">
         <v>100</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>44197</v>
       </c>
       <c r="G33">
@@ -1549,9 +1520,8 @@
       <c r="H33">
         <v>4</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1567,7 +1537,7 @@
       <c r="E34">
         <v>40</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>41640</v>
       </c>
       <c r="G34">
@@ -1576,9 +1546,8 @@
       <c r="H34">
         <v>12</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1594,7 +1563,7 @@
       <c r="E35">
         <v>30</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>41640</v>
       </c>
       <c r="G35">
@@ -1603,9 +1572,8 @@
       <c r="H35">
         <v>12</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1621,7 +1589,7 @@
       <c r="E36">
         <v>30</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>43101</v>
       </c>
       <c r="G36">
@@ -1630,9 +1598,8 @@
       <c r="H36">
         <v>4</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1648,7 +1615,7 @@
       <c r="E37">
         <v>100</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>42370</v>
       </c>
       <c r="G37">
@@ -1657,9 +1624,8 @@
       <c r="H37">
         <v>5</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1675,7 +1641,7 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>41640</v>
       </c>
       <c r="G38">
@@ -1684,9 +1650,8 @@
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1702,7 +1667,7 @@
       <c r="E39">
         <v>40</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>43466</v>
       </c>
       <c r="G39">
@@ -1711,9 +1676,8 @@
       <c r="H39">
         <v>4</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1729,7 +1693,7 @@
       <c r="E40">
         <v>30</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>42736</v>
       </c>
       <c r="G40">
@@ -1738,9 +1702,8 @@
       <c r="H40">
         <v>4</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1756,7 +1719,7 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>41640</v>
       </c>
       <c r="G41">
@@ -1765,9 +1728,8 @@
       <c r="H41">
         <v>8</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1783,7 +1745,7 @@
       <c r="E42">
         <v>15</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>42370</v>
       </c>
       <c r="G42">
@@ -1792,9 +1754,8 @@
       <c r="H42">
         <v>8</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1810,7 +1771,7 @@
       <c r="E43">
         <v>15</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>42370</v>
       </c>
       <c r="G43">
@@ -1819,9 +1780,8 @@
       <c r="H43">
         <v>4</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1837,7 +1797,7 @@
       <c r="E44">
         <v>25</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>42736</v>
       </c>
       <c r="G44">
@@ -1846,9 +1806,8 @@
       <c r="H44">
         <v>100</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1864,7 +1823,7 @@
       <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>43466</v>
       </c>
       <c r="G45">
@@ -1873,9 +1832,8 @@
       <c r="H45">
         <v>4</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1891,7 +1849,7 @@
       <c r="E46">
         <v>30</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>42005</v>
       </c>
       <c r="G46">
@@ -1900,9 +1858,8 @@
       <c r="H46">
         <v>6</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1918,7 +1875,7 @@
       <c r="E47">
         <v>30</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>43831</v>
       </c>
       <c r="G47">
@@ -1927,9 +1884,8 @@
       <c r="H47">
         <v>2</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1945,7 +1901,7 @@
       <c r="E48">
         <v>30</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>43466</v>
       </c>
       <c r="G48">
@@ -1954,9 +1910,8 @@
       <c r="H48">
         <v>4</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1972,7 +1927,7 @@
       <c r="E49">
         <v>40</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>42005</v>
       </c>
       <c r="G49">
@@ -1981,9 +1936,8 @@
       <c r="H49">
         <v>4</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1999,7 +1953,7 @@
       <c r="E50">
         <v>30</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>42736</v>
       </c>
       <c r="G50">
@@ -2008,9 +1962,8 @@
       <c r="H50">
         <v>4</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2026,7 +1979,7 @@
       <c r="E51">
         <v>30</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>41640</v>
       </c>
       <c r="G51">
@@ -2035,7 +1988,6 @@
       <c r="H51">
         <v>4</v>
       </c>
-      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\bdd_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673033F8-FDC1-4B61-A653-A6DB4A3DEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E16E9D-5C03-45EC-B2EA-1CBC5F7D8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="\'yyyy\'"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -655,7 +655,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/bdd_excel/Jeux.xlsx
+++ b/bdd_excel/Jeux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\bdd_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E16E9D-5C03-45EC-B2EA-1CBC5F7D8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C2561-1500-48B1-9D5E-ABCC8DACD992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{642E0B34-DEEB-4D43-8721-D90C3281AE4B}"/>
   </bookViews>
@@ -304,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\'yyyy\'"/>
+    <numFmt numFmtId="165" formatCode="\'yyyy\-mm\-dd\'"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -337,7 +337,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
